--- a/scr/data/20240909_mc_batch1.xlsx
+++ b/scr/data/20240909_mc_batch1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thuduong\Learning\test_cutting_stock_optima\scr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800C758E-19B5-4283-A820-CF009EE05A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C69A1A-BC65-49A6-BDF2-B3CA7D9DFB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{7A56DEF3-8914-4705-A4EF-CE8A8394A2E2}"/>
   </bookViews>
@@ -1386,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFE70BD-6B54-4DE4-BF4E-0C04440D7440}">
   <dimension ref="A1:M205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J206" sqref="J206"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
